--- a/Assets/Resources/Data/PlaceDialogDB.xlsx
+++ b/Assets/Resources/Data/PlaceDialogDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjcha\Desktop\Bridge\Project\Nostalgia\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86105B-B406-4B0D-A231-E05C59B5A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424CA6AC-AE0D-438F-BF73-73D38E81ADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="173">
   <si>
     <t>day</t>
   </si>
@@ -54,388 +54,496 @@
     <t>TreeButton</t>
   </si>
   <si>
-    <t>TreeImageType00</t>
+    <t>이 나무 엄청 커! 왜 이렇게 큰거야??</t>
+  </si>
+  <si>
+    <t>중앙 나무를 이렇게 가까이에서 본 적은 처음이지?</t>
+  </si>
+  <si>
+    <t>이 나무는 세상에서 가장 오래된 나무야.\n그 긴 세월 동안 비가 오나 눈이 오나 이 자리를 지켜준 소중한 나무지.</t>
+  </si>
+  <si>
+    <t>이 나무 덕분에 사람들이 모이고, 지금 이렇게 트리안이 있을 수 있는 거란다.</t>
+  </si>
+  <si>
+    <t>와! 그냥 엄청 큰 나무인줄로만 알았어요!</t>
+  </si>
+  <si>
+    <t>하늘에 닿을 만큼 크기도 하지만, 이 나무는 트리안의 소중한 친구지.</t>
+  </si>
+  <si>
+    <t>이 나무만 근처에만 있으면 마음이 편안해지지 않니?</t>
+  </si>
+  <si>
+    <t>음... 기분 좋은 향이 나!</t>
+  </si>
+  <si>
+    <t>똑똑똑...</t>
+  </si>
+  <si>
+    <t>LorenaButton</t>
+  </si>
+  <si>
+    <t>(집 안에서 인기척이 느껴지지 않는다.)</t>
+  </si>
+  <si>
+    <t>아무도 없으신가요?</t>
+  </si>
+  <si>
+    <t>(.....)</t>
+  </si>
+  <si>
+    <t>다음에 다시 오는 게 좋겠어.</t>
+  </si>
+  <si>
+    <t>(길거리에서 사람들의 소리가 들린다.)</t>
+  </si>
+  <si>
+    <t>AlleyButton</t>
+  </si>
+  <si>
+    <t>너 어제 그거 봤어??</t>
+  </si>
+  <si>
+    <t>어? 뭘 봤다는 거야?</t>
+  </si>
+  <si>
+    <t>아니, 어제 하늘에 나타난 거 말이야~</t>
+  </si>
+  <si>
+    <t>아, 그거?\n소문으로만 들었는데 그걸 직접 본 사람은 없던데?</t>
+  </si>
+  <si>
+    <t>아니 너도 그걸 못 봤단 말이야?? 내 두 눈으로 똑똑히 봤어!</t>
+  </si>
+  <si>
+    <t>조금 희미하게 보이긴 했지만... 정말 말랑말랑한 게 날아가고 있었다니까?</t>
+  </si>
+  <si>
+    <t>그게 마을 광장에서 홀연히 사라진 거 있지?</t>
+  </si>
+  <si>
+    <t>네가 잘못 본 거겠지, 이 바보야.</t>
+  </si>
+  <si>
+    <t>아 진짜라니까...!!</t>
+  </si>
+  <si>
+    <t>진짜 말랑말랑한 게 어디론가 날아가고 있었는데...</t>
+  </si>
+  <si>
+    <t>사람도 많았는데... 왜 나 빼고 아무도 못 본 거지..?</t>
+  </si>
+  <si>
+    <t>하여튼 엉뚱하다니깐...</t>
+  </si>
+  <si>
+    <t>이보게!</t>
+  </si>
+  <si>
+    <t>MountainButton</t>
+  </si>
+  <si>
+    <t>이 야심한 밤에 산에 오르려던 것은 아닐테지..?</t>
+  </si>
+  <si>
+    <t>오호.. 누군가 했더니, 그 신기한 가게 주인이구만.</t>
+  </si>
+  <si>
+    <t>하하, 그 마법 재료들을 여기서 구하는 건가..?</t>
+  </si>
+  <si>
+    <t>내가 그 비밀은 지켜주겠다만..,</t>
+  </si>
+  <si>
+    <t>오늘은 이 산에 밤을 오르지 않는 게 좋을걸세.</t>
+  </si>
+  <si>
+    <t>(냐-옹)</t>
+  </si>
+  <si>
+    <t>아이고~ 올해는 다들 일찍 돌아오셨네.</t>
+  </si>
+  <si>
+    <t>이렇게 매년 우리 마을에 고양이들이 찾아온다네.</t>
+  </si>
+  <si>
+    <t>근데 요즘따라 고양이 소리가 왜 이리 많이 들리지..?</t>
+  </si>
+  <si>
+    <t>(냐아-옹)</t>
+  </si>
+  <si>
+    <t>근데 좀 이상하지 않아?</t>
+  </si>
+  <si>
+    <t>뭐 말이야??</t>
+  </si>
+  <si>
+    <t>아니 생각해봐. 지금 눈도 오고 추운데 중앙나무 근처는 왜 따뜻한 걸까?</t>
+  </si>
+  <si>
+    <t>음… 글쎄…? 생각해 본 적이 없어.</t>
+  </si>
+  <si>
+    <t>진짜 뭔가 이상하지 않아?</t>
+  </si>
+  <si>
+    <t>생각해보니까 나무 근처에만 있으면 이상하게 포근한 것 같아.</t>
+  </si>
+  <si>
+    <t>흠..., 트리안 마을은 정말 신비로운 마을이야.</t>
+  </si>
+  <si>
+    <t>어쩌구저쩌구</t>
+  </si>
+  <si>
+    <t>LighthouseButton</t>
+  </si>
+  <si>
+    <t>자네가 이 일을 아주 훌륭하게 잘 해내고 있다는 뜻이겠지.</t>
+  </si>
+  <si>
+    <t>흐음, 저 파도를 보게나...</t>
+  </si>
+  <si>
+    <t>이 늦은 밤 홀로 잔잔한 파도 끝을 보고 있으면,\n잠시나마 내 마음을 위로해주는 것 같지.</t>
+  </si>
+  <si>
+    <t>이렇게 누군가의 상처를 어루만져주는 일은 쉬운 게 아니라네.</t>
+  </si>
+  <si>
+    <t>명심하게나. 과거의 판도라 상자를 여는 건 늘 신중해야 한다네.</t>
+  </si>
+  <si>
+    <t>그럼 내일 또 보지.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>사용법</t>
+  </si>
+  <si>
+    <t xml:space="preserve">등장일차입니다. 1일차부터 </t>
+  </si>
+  <si>
+    <t>대화창에 표시될 이름입니다.</t>
+  </si>
+  <si>
+    <t>대화창에서 사용될 이미지입니다.</t>
+  </si>
+  <si>
+    <t>사용될 대화입니다.</t>
+  </si>
+  <si>
+    <t>활성화 될 장소(버튼)입니다.</t>
+  </si>
+  <si>
+    <t>사용될 배경 이미지 입니다.</t>
+  </si>
+  <si>
+    <t>중요한 장소에 대한 체크</t>
+  </si>
+  <si>
+    <t>정수형으로 넣어주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>이름 데이터 그대로 기입해주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>실제 데이터 명을 기입해야 합니다.</t>
+  </si>
+  <si>
+    <t>사용될 대화를 기입하시면 됩니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장소명은 고정이며 </t>
+  </si>
+  <si>
+    <t>face와 마찬가지로 데이터명을 기입하셔야 합니다.</t>
+  </si>
+  <si>
+    <t>ex) 1</t>
+  </si>
+  <si>
+    <t>ex) 로레나</t>
+  </si>
+  <si>
+    <t>데이터 폴더 위치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 대사당 한번씩 출력되며 한 대사 내에서 </t>
+  </si>
+  <si>
+    <t>아래 예시에서 복사하시기 바립니다.</t>
+  </si>
+  <si>
+    <t>Assets/Resources/MoveSystem/BackGround</t>
+  </si>
+  <si>
+    <t>ex) 2</t>
+  </si>
+  <si>
+    <t>ex) 아론</t>
+  </si>
+  <si>
+    <t>Assets/Resources/MoveSystem/Face &lt;&lt; 이게 너무 궁금했는데 .. 흠.ㅁ..</t>
+  </si>
+  <si>
+    <t>줄바꿈이 필요하다면 \n를 넣어주세요</t>
+  </si>
+  <si>
+    <t>로 구분해주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>ex)Lorena_Sad</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>*오탈자 데이터 명과 다르면 버그가 나올 수 있음!</t>
+  </si>
+  <si>
+    <t>AronButton</t>
+  </si>
+  <si>
+    <t>향수공방은 항상 활성화</t>
+  </si>
+  <si>
+    <t>2명 이상의 인물 등장의 경우 홀수 즉. 순서대로 등장한 인물 중 1첫번째 3번째...인물은 왼쪽에 위치 짝수의 경우 오른쪽에 위치합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차례대로 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!! 독백 처리의 경우  name과 face를 넣으실 필요가 없습니다. </t>
+  </si>
+  <si>
+    <t>골목길, 로레나집, 나무, 아론</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;------------------- 주석입니다. ###### </t>
+  </si>
+  <si>
+    <t>행 방향으로 주석 처리가 됩니다.</t>
+  </si>
+  <si>
+    <t>(조심스럽게 문이 열린다.)</t>
+  </si>
+  <si>
+    <t>로레나</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>로레나씨..?</t>
+  </si>
+  <si>
+    <t>어.. 괜찮으신가요..?</t>
+  </si>
+  <si>
+    <t>...남자친구, 아니 제이든이.. 너무 보고싶어..</t>
+  </si>
+  <si>
+    <t>사랑했던 사람과의 추억을 지우는 건 누구에게나 힘든 일이에요..</t>
+  </si>
+  <si>
+    <t>아니, 나는 제이든과의 사랑을 억지로 지우고 싶지 않아.</t>
+  </si>
+  <si>
+    <t>제이든은 직장을 다니면서부터 점점 나와 멀어졌어...</t>
+  </si>
+  <si>
+    <t>나는 전처럼 사랑받기 위해서 최선을 다했는데...</t>
+  </si>
+  <si>
+    <t>대체 왜 이렇게 된걸까..? 내 모습이 싫어...</t>
+  </si>
+  <si>
+    <t>로레나씨, 오늘만큼은 휴식을 취해보는 건 어때요..?</t>
+  </si>
+  <si>
+    <t>응, 와줘서 고마워...</t>
+  </si>
+  <si>
+    <t>마을에서 향수에 대한 소문이 자자하더군.</t>
+  </si>
+  <si>
+    <t>꼬마 아이</t>
+  </si>
+  <si>
+    <t>어른</t>
+  </si>
+  <si>
+    <t>(나무가 바람에 흔들린다.)</t>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>의문의 할아버지</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>역시 축제 기간이 최고야!</t>
+  </si>
+  <si>
+    <t>엄마! 나도 저거 사줘!!</t>
+  </si>
+  <si>
+    <t>하하! 이제야 우리 마을에 활기가 생긴 거 같네.</t>
+  </si>
+  <si>
+    <t>그러게, 거리에 사람이 바글바글한 건 정말 오랜만이야!</t>
+  </si>
+  <si>
+    <t>요즘 마을을 둘러볼 여유도 없이 그저 바쁘게만 지냈는데….</t>
+  </si>
+  <si>
+    <t>이런 축제 기간이 있으니 리프 섬으로 가버린 가족들이 생각나는구먼.</t>
+  </si>
+  <si>
+    <t>그래도 리프 섬에서 우리 축제에 대한 소문이 자자하다던데?</t>
+  </si>
+  <si>
+    <t>오! 그렇다면 여기저기에서 사람들이 아주 많이 놀러 오겠군.</t>
+  </si>
+  <si>
+    <t>기회가 된다면.. 오랜만에 가족들도 볼 수 있겠어.</t>
+  </si>
+  <si>
+    <t>맞아! 새로운 사람들을 맞이할 생각에 벌써 신이 나는걸?</t>
+  </si>
+  <si>
+    <t>누나! 마지막으로 탔던 롤러코스터 너무 재밌었어!!</t>
+  </si>
+  <si>
+    <t>저기 바이킹은 늦은 시간까지 사람이 저렇게 많아?</t>
+  </si>
+  <si>
+    <t>어라, 저게 뭐지?</t>
+  </si>
+  <si>
+    <t>누나! 내 말은 듣고 있는 거야?</t>
+  </si>
+  <si>
+    <t>어? 방금 저 풀에 움직이는 거 봤어?</t>
+  </si>
+  <si>
+    <t>누나가 그런 이야기하니까 갑자기 무서워지잖아!!</t>
+  </si>
+  <si>
+    <t>빨리 집으로 내려가자!</t>
+  </si>
+  <si>
+    <t>알았어, 뛰어가지 말고 천천히 가.</t>
+  </si>
+  <si>
+    <t>흠... 분명히 반짝이는 걸 본 거 같은데..</t>
+  </si>
+  <si>
+    <t>Movemap_Place_Tree</t>
   </si>
   <si>
     <t>B_basic_night</t>
   </si>
   <si>
-    <t>이 나무 엄청 커! 왜 이렇게 큰거야??</t>
-  </si>
-  <si>
     <t>J_basic_night</t>
   </si>
   <si>
-    <t>중앙 나무를 이렇게 가까이에서 본 적은 처음이지?</t>
-  </si>
-  <si>
-    <t>이 나무는 세상에서 가장 오래된 나무야.\n그 긴 세월 동안 비가 오나 눈이 오나 이 자리를 지켜준 소중한 나무지.</t>
-  </si>
-  <si>
     <t>J_good_night</t>
   </si>
   <si>
-    <t>이 나무 덕분에 사람들이 모이고, 지금 이렇게 트리안이 있을 수 있는 거란다.</t>
-  </si>
-  <si>
     <t>B_good_night</t>
   </si>
   <si>
-    <t>와! 그냥 엄청 큰 나무인줄로만 알았어요!</t>
-  </si>
-  <si>
-    <t>하늘에 닿을 만큼 크기도 하지만, 이 나무는 트리안의 소중한 친구지.</t>
-  </si>
-  <si>
-    <t>이 나무만 근처에만 있으면 마음이 편안해지지 않니?</t>
-  </si>
-  <si>
-    <t>음... 기분 좋은 향이 나!</t>
-  </si>
-  <si>
-    <t>(나무가 바람에 흔들리는 소리)</t>
-  </si>
-  <si>
-    <t>똑똑똑...</t>
-  </si>
-  <si>
-    <t>LorenaButton</t>
-  </si>
-  <si>
-    <t>LorenaImageType00</t>
-  </si>
-  <si>
-    <t>(집 안에서 인기척이 느껴지지 않는다.)</t>
-  </si>
-  <si>
-    <t>아무도 없으신가요?</t>
-  </si>
-  <si>
-    <t>(.....)</t>
-  </si>
-  <si>
-    <t>다음에 다시 오는 게 좋겠어.</t>
-  </si>
-  <si>
-    <t>(길거리에서 사람들의 소리가 들린다.)</t>
-  </si>
-  <si>
-    <t>AlleyButton</t>
-  </si>
-  <si>
-    <t>AlleyImageType00</t>
+    <t>Movemap_Place_Lorea</t>
+  </si>
+  <si>
+    <t>Movemap_Place_Street</t>
   </si>
   <si>
     <t>D_good_night</t>
   </si>
   <si>
-    <t>너 어제 그거 봤어??</t>
-  </si>
-  <si>
     <t>C_basic_night</t>
   </si>
   <si>
-    <t>어? 뭘 봤다는 거야?</t>
-  </si>
-  <si>
     <t>D_basic_night</t>
   </si>
   <si>
-    <t>아니, 어제 하늘에 나타난 거 말이야~</t>
-  </si>
-  <si>
-    <t>아, 그거?\n소문으로만 들었는데 그걸 직접 본 사람은 없던데?</t>
-  </si>
-  <si>
-    <t>아니 너도 그걸 못 봤단 말이야?? 내 두 눈으로 똑똑히 봤어!</t>
-  </si>
-  <si>
-    <t>조금 희미하게 보이긴 했지만... 정말 말랑말랑한 게 날아가고 있었다니까?</t>
-  </si>
-  <si>
-    <t>그게 마을 광장에서 홀연히 사라진 거 있지?</t>
-  </si>
-  <si>
-    <t>네가 잘못 본 거겠지, 이 바보야.</t>
-  </si>
-  <si>
     <t>D_sad_night</t>
   </si>
   <si>
-    <t>아 진짜라니까...!!</t>
-  </si>
-  <si>
-    <t>진짜 말랑말랑한 게 어디론가 날아가고 있었는데...</t>
-  </si>
-  <si>
     <t>D_bad_night</t>
   </si>
   <si>
-    <t>사람도 많았는데... 왜 나 빼고 아무도 못 본 거지..?</t>
-  </si>
-  <si>
     <t>C_good_night</t>
   </si>
   <si>
-    <t>하여튼 엉뚱하다니깐...</t>
-  </si>
-  <si>
-    <t>이보게!</t>
-  </si>
-  <si>
-    <t>MountainButton</t>
-  </si>
-  <si>
-    <t>MountainImageType00</t>
-  </si>
-  <si>
-    <t>이 야심한 밤에 산에 오르려던 것은 아닐테지..?</t>
-  </si>
-  <si>
-    <t>오호.. 누군가 했더니, 그 신기한 가게 주인이구만.</t>
-  </si>
-  <si>
-    <t>하하, 그 마법 재료들을 여기서 구하는 건가..?</t>
-  </si>
-  <si>
-    <t>내가 그 비밀은 지켜주겠다만..,</t>
-  </si>
-  <si>
-    <t>오늘은 이 산에 밤을 오르지 않는 게 좋을걸세.</t>
-  </si>
-  <si>
-    <t>(냐-옹)</t>
-  </si>
-  <si>
-    <t>아이고~ 올해는 다들 일찍 돌아오셨네.</t>
-  </si>
-  <si>
-    <t>이렇게 매년 우리 마을에 고양이들이 찾아온다네.</t>
-  </si>
-  <si>
-    <t>근데 요즘따라 고양이 소리가 왜 이리 많이 들리지..?</t>
-  </si>
-  <si>
-    <t>(냐아-옹)</t>
-  </si>
-  <si>
-    <t>근데 좀 이상하지 않아?</t>
-  </si>
-  <si>
-    <t>뭐 말이야??</t>
-  </si>
-  <si>
-    <t>아니 생각해봐. 지금 눈도 오고 추운데 중앙나무 근처는 왜 따뜻한 걸까?</t>
-  </si>
-  <si>
-    <t>음… 글쎄…? 생각해 본 적이 없어.</t>
-  </si>
-  <si>
-    <t>진짜 뭔가 이상하지 않아?</t>
-  </si>
-  <si>
-    <t>생각해보니까 나무 근처에만 있으면 이상하게 포근한 것 같아.</t>
-  </si>
-  <si>
-    <t>흠..., 트리안 마을은 정말 신비로운 마을이야.</t>
-  </si>
-  <si>
-    <t>어쩌구저쩌구</t>
-  </si>
-  <si>
-    <t>LighthouseButton</t>
-  </si>
-  <si>
-    <t>LighthouseImageType00</t>
-  </si>
-  <si>
-    <t>자네가 이 일을 아주 훌륭하게 잘 해내고 있다는 뜻이겠지.</t>
-  </si>
-  <si>
-    <t>흐음, 저 파도를 보게나...</t>
-  </si>
-  <si>
-    <t>이 늦은 밤 홀로 잔잔한 파도 끝을 보고 있으면,\n잠시나마 내 마음을 위로해주는 것 같지.</t>
-  </si>
-  <si>
-    <t>이렇게 누군가의 상처를 어루만져주는 일은 쉬운 게 아니라네.</t>
-  </si>
-  <si>
-    <t>명심하게나. 과거의 판도라 상자를 여는 건 늘 신중해야 한다네.</t>
-  </si>
-  <si>
-    <t>그럼 내일 또 보지.</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>사용법</t>
-  </si>
-  <si>
-    <t xml:space="preserve">등장일차입니다. 1일차부터 </t>
-  </si>
-  <si>
-    <t>대화창에 표시될 이름입니다.</t>
-  </si>
-  <si>
-    <t>대화창에서 사용될 이미지입니다.</t>
-  </si>
-  <si>
-    <t>사용될 대화입니다.</t>
-  </si>
-  <si>
-    <t>활성화 될 장소(버튼)입니다.</t>
-  </si>
-  <si>
-    <t>사용될 배경 이미지 입니다.</t>
-  </si>
-  <si>
-    <t>중요한 장소에 대한 체크</t>
-  </si>
-  <si>
-    <t>정수형으로 넣어주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>이름 데이터 그대로 기입해주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>실제 데이터 명을 기입해야 합니다.</t>
-  </si>
-  <si>
-    <t>사용될 대화를 기입하시면 됩니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">장소명은 고정이며 </t>
-  </si>
-  <si>
-    <t>face와 마찬가지로 데이터명을 기입하셔야 합니다.</t>
-  </si>
-  <si>
-    <t>ex) 1</t>
-  </si>
-  <si>
-    <t>ex) 로레나</t>
-  </si>
-  <si>
-    <t>데이터 폴더 위치</t>
-  </si>
-  <si>
-    <t xml:space="preserve">한 대사당 한번씩 출력되며 한 대사 내에서 </t>
-  </si>
-  <si>
-    <t>아래 예시에서 복사하시기 바립니다.</t>
-  </si>
-  <si>
-    <t>Assets/Resources/MoveSystem/BackGround</t>
-  </si>
-  <si>
-    <t>ex) 2</t>
-  </si>
-  <si>
-    <t>ex) 아론</t>
-  </si>
-  <si>
-    <t>Assets/Resources/MoveSystem/Face &lt;&lt; 이게 너무 궁금했는데 .. 흠.ㅁ..</t>
-  </si>
-  <si>
-    <t>줄바꿈이 필요하다면 \n를 넣어주세요</t>
-  </si>
-  <si>
-    <t>로 구분해주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>ex)Lorena_Sad</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>*오탈자 데이터 명과 다르면 버그가 나올 수 있음!</t>
-  </si>
-  <si>
-    <t>AronButton</t>
-  </si>
-  <si>
-    <t>향수공방은 항상 활성화</t>
-  </si>
-  <si>
-    <t>2명 이상의 인물 등장의 경우 홀수 즉. 순서대로 등장한 인물 중 1첫번째 3번째...인물은 왼쪽에 위치 짝수의 경우 오른쪽에 위치합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">차례대로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">!!! 독백 처리의 경우  name과 face를 넣으실 필요가 없습니다. </t>
-  </si>
-  <si>
-    <t>골목길, 로레나집, 나무, 아론</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;------------------- 주석입니다. ###### </t>
-  </si>
-  <si>
-    <t>행 방향으로 주석 처리가 됩니다.</t>
-  </si>
-  <si>
-    <t>바보</t>
-  </si>
-  <si>
-    <t>멍청이</t>
-  </si>
-  <si>
-    <t>(조심스럽게 문이 열린다.)</t>
-  </si>
-  <si>
-    <t>로레나</t>
+    <t>K_bad_night</t>
+  </si>
+  <si>
+    <t>Movemap_Place_Wood</t>
+  </si>
+  <si>
+    <t>K_basic_night</t>
+  </si>
+  <si>
+    <t>K_good_night</t>
+  </si>
+  <si>
+    <t>E_basic_night</t>
+  </si>
+  <si>
+    <t>F_basic_night</t>
+  </si>
+  <si>
+    <t>E_sad_night</t>
+  </si>
+  <si>
+    <t>F_good_night</t>
+  </si>
+  <si>
+    <t>E_good_night</t>
   </si>
   <si>
     <t>L01_vacant_night</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>로레나씨..?</t>
-  </si>
-  <si>
-    <t>어.. 괜찮으신가요..?</t>
-  </si>
-  <si>
     <t>L01_faint2_night</t>
   </si>
   <si>
-    <t>...남자친구, 아니 제이든이.. 너무 보고싶어..</t>
-  </si>
-  <si>
-    <t>사랑했던 사람과의 추억을 지우는 건 누구에게나 힘든 일이에요..</t>
-  </si>
-  <si>
-    <t>아니, 나는 제이든과의 사랑을 억지로 지우고 싶지 않아.</t>
-  </si>
-  <si>
     <t>L01_cry_night</t>
   </si>
   <si>
-    <t>제이든은 직장을 다니면서부터 점점 나와 멀어졌어...</t>
-  </si>
-  <si>
-    <t>나는 전처럼 사랑받기 위해서 최선을 다했는데...</t>
-  </si>
-  <si>
-    <t>대체 왜 이렇게 된걸까..? 내 모습이 싫어...</t>
-  </si>
-  <si>
-    <t>로레나씨, 오늘만큼은 휴식을 취해보는 건 어때요..?</t>
-  </si>
-  <si>
-    <t>응, 와줘서 고마워...</t>
-  </si>
-  <si>
     <t>Packman</t>
   </si>
   <si>
-    <t>마을에서 향수에 대한 소문이 자자하더군.</t>
+    <t>Movemap_Place_Lighthouse</t>
+  </si>
+  <si>
+    <t>G_good_night</t>
+  </si>
+  <si>
+    <t>H_basic_night</t>
+  </si>
+  <si>
+    <t>H_good_night</t>
+  </si>
+  <si>
+    <t>A_good_night</t>
+  </si>
+  <si>
+    <t>A_bad_night</t>
+  </si>
+  <si>
+    <t>A_sad_night</t>
   </si>
 </sst>
 </file>
@@ -541,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +675,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -787,7 +898,7 @@
   <dimension ref="A1:I1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G74"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -804,7 +915,7 @@
     <col min="10" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -826,8 +937,9 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -840,1744 +952,2281 @@
         <v>8</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G3" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>1</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="E24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="E27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="G29" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G32" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G33" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>2</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G34" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>2</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G35" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>2</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G36" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G37" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>2</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="D38" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G38" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="D39" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G39" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>2</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="D41" s="6" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G41" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>2</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="D42" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G42" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>2</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G43" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>2</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="D44" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G44" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>2</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="D45" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G45" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>2</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="D46" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G46" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>2</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="G47" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>3</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>3</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G49" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G51" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>3</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G52" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G53" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>3</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G54" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>3</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G55" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>3</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G56" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>3</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G57" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>3</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>3</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G59" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>3</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G60" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>3</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G61" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>3</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G62" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>3</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="G63" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>3</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G64" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>3</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G65" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>3</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G66" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>3</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G67" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>3</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G68" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>3</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G69" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>3</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G70" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>3</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="s">
-        <v>71</v>
+      <c r="C71" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="G71" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>3</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6" t="s">
-        <v>71</v>
+      <c r="C72" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="G72" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>3</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6" t="s">
-        <v>71</v>
+      <c r="C73" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="G73" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>3</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6" t="s">
+      <c r="C74" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
+        <v>3</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G75" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
+        <v>3</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <v>3</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G77" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
+        <v>3</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G78" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
+        <v>3</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <v>3</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
+        <v>4</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <v>4</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G83" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
+        <v>4</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G84" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
+        <v>4</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <v>4</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G86" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
+        <v>4</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <v>4</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <v>4</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G89" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
+        <v>4</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
+        <v>4</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G91" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <v>4</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G92" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
+        <v>4</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G93" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
+        <v>4</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G94" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G74" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+      <c r="I109" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="I111" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="G112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="2" t="s">
+    </row>
+    <row r="113" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G114" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H99" s="2" t="s">
+    </row>
+    <row r="116" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C100" s="2" t="s">
+    </row>
+    <row r="117" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E100" s="2" t="s">
+    </row>
+    <row r="118" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G100" s="2" t="s">
+    </row>
+    <row r="119" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I100" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="120" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="129" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="130" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="131" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Assets/Resources/Data/PlaceDialogDB.xlsx
+++ b/Assets/Resources/Data/PlaceDialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Bridge_Project_git\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjcha\Desktop\Bridge\Project\Nostalgia\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68101B0D-0D1E-43B5-A7D7-3866D98E5EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96D97D-A24E-42BC-803D-3294ADD25B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-14910" windowWidth="27060" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlaceEntity" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="216">
   <si>
     <t>day</t>
   </si>
@@ -195,9 +195,6 @@
     <t>흠..., 트리안 마을은 정말 신비로운 마을이야.</t>
   </si>
   <si>
-    <t>어쩌구저쩌구</t>
-  </si>
-  <si>
     <t>LighthouseButton</t>
   </si>
   <si>
@@ -538,6 +535,149 @@
   </si>
   <si>
     <t>L01_vacant_night</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanationImage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightHouse</t>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lorena</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Street</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+  </si>
+  <si>
+    <t>학생1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>의문의 할아버지</t>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 주민2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>향료 상인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(집 주변에서 서성거리는 로레나가 보인다.)</t>
+  </si>
+  <si>
+    <t>로레나씨.. 뭐... 하시는.... 거예요...?</t>
+  </si>
+  <si>
+    <t>........</t>
+  </si>
+  <si>
+    <t>아... 아저씨구나....</t>
+  </si>
+  <si>
+    <t>제이든...인줄 알았네....</t>
+  </si>
+  <si>
+    <t>어... 괜찮으신가요...?</t>
+  </si>
+  <si>
+    <t>그럼.... 당연히.... 괜찮지...</t>
+  </si>
+  <si>
+    <t>지금 제이든을 기다리는 중이야.</t>
+  </si>
+  <si>
+    <t>오늘 만나기로 하신 건가요...?</t>
+  </si>
+  <si>
+    <t>응, 오늘 제이든을 보기로 했어.</t>
+  </si>
+  <si>
+    <t>정말 많이 보고 싶었는데...</t>
+  </si>
+  <si>
+    <t>곧 볼 수 있으니까 너무 기뻐...</t>
+  </si>
+  <si>
+    <t>근데 너는 왜 온거야...?</t>
+  </si>
+  <si>
+    <t>아.. 산책하다가 잠시 들렸어요.</t>
+  </si>
+  <si>
+    <t>그래..? 이제 곧 제이든을 봐야 하니까 그만 가.</t>
+  </si>
+  <si>
+    <t>아.. 알겠어요. 다음에 봬요 로레나씨.</t>
+  </si>
+  <si>
+    <t>(뚜벅뚜벅..)</t>
+  </si>
+  <si>
+    <t>로레나는 오늘 제이든을 보는 건가..?</t>
+  </si>
+  <si>
+    <t>갑자기 어떻게 된 것인지 모르겠다..</t>
+  </si>
+  <si>
+    <t>(집 근처를 서성거리는 로레나의 모습이 희미해졌다.)</t>
+  </si>
+  <si>
+    <t>동생</t>
+  </si>
+  <si>
+    <t>누나</t>
+  </si>
+  <si>
+    <t>트리안 마을 중심에 위치한 세계수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>로레나의 집</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -549,14 +689,14 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>지나가는</t>
+      <t>트리안</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -568,39 +708,94 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사람</t>
+      <t>마을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 길거리</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MountainButton</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리안 마을의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒷산</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>할아버지</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로레나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>explanation</t>
+    <t>밤바다를 비춰주는 등대</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanationImage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>장소 설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightHouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +854,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -732,7 +940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -763,12 +971,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -783,6 +985,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,22 +1221,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H94"/>
+    <sheetView tabSelected="1" topLeftCell="D78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
+    <col min="5" max="5" width="49.26953125" customWidth="1"/>
+    <col min="6" max="6" width="36.54296875" customWidth="1"/>
+    <col min="7" max="7" width="37.7265625" customWidth="1"/>
+    <col min="8" max="8" width="47.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" customWidth="1"/>
+    <col min="10" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -1042,280 +1262,292 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="12">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="12">
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>177</v>
+      <c r="F11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -1330,16 +1562,16 @@
         <v>18</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>177</v>
+      <c r="H12" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -1355,23 +1587,25 @@
         <v>18</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>177</v>
+      <c r="H13" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
         <v>20</v>
@@ -1380,16 +1614,16 @@
         <v>18</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>177</v>
+      <c r="H14" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -1405,23 +1639,25 @@
         <v>18</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>177</v>
+      <c r="H15" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
         <v>22</v>
@@ -1430,376 +1666,400 @@
         <v>18</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>177</v>
+      <c r="H16" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>1</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A18" s="12">
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13" t="s">
+      <c r="B19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="12">
+      <c r="F19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
+      <c r="B20" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="D20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="12">
+      <c r="F20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A23" s="10">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A24" s="10">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="12">
+      <c r="F26" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="B27" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A22" s="12">
+      <c r="F27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A28" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B28" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A23" s="12">
+      <c r="F28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A29" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="B29" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A24" s="12">
-        <v>1</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A25" s="12">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="12">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="12">
-        <v>1</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="12">
-        <v>1</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>177</v>
+      <c r="F29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>173</v>
+      <c r="B30" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>37</v>
@@ -1808,27 +2068,27 @@
         <v>38</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>173</v>
+      <c r="B31" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>39</v>
@@ -1837,27 +2097,27 @@
         <v>38</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G31" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>173</v>
+      <c r="B32" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>40</v>
@@ -1866,27 +2126,27 @@
         <v>38</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>173</v>
+      <c r="B33" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>41</v>
@@ -1895,27 +2155,27 @@
         <v>38</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G33" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A34" s="4">
         <v>2</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>173</v>
+      <c r="B34" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>42</v>
@@ -1924,27 +2184,27 @@
         <v>38</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A35" s="4">
         <v>2</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>173</v>
+      <c r="B35" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>43</v>
@@ -1953,23 +2213,25 @@
         <v>38</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G35" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A36" s="4">
         <v>2</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
         <v>44</v>
@@ -1978,27 +2240,27 @@
         <v>38</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G36" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>173</v>
+      <c r="B37" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>45</v>
@@ -2007,27 +2269,27 @@
         <v>38</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A38" s="4">
         <v>2</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>173</v>
+      <c r="B38" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>46</v>
@@ -2036,27 +2298,27 @@
         <v>38</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>173</v>
+      <c r="B39" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>47</v>
@@ -2065,23 +2327,25 @@
         <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
         <v>48</v>
@@ -2090,205 +2354,219 @@
         <v>38</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I40" s="16" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>2</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A42" s="10">
+        <v>2</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="13" t="s">
+      <c r="D42" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A42" s="12">
+      <c r="F42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A43" s="10">
         <v>2</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13" t="s">
+      <c r="B43" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="13" t="s">
+      <c r="D43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A43" s="12">
+      <c r="F43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A44" s="10">
         <v>2</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13" t="s">
+      <c r="B44" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A45" s="10">
+        <v>2</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A46" s="10">
+        <v>2</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="D46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A44" s="12">
+      <c r="F46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A47" s="10">
         <v>2</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="13" t="s">
+      <c r="B47" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="12">
-        <v>2</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A46" s="12">
-        <v>2</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A47" s="12">
-        <v>2</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>177</v>
+      <c r="F47" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2304,16 +2582,16 @@
         <v>18</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>177</v>
+      <c r="H48" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2323,22 +2601,22 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>177</v>
+      <c r="H49" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2346,53 +2624,55 @@
         <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>177</v>
+      <c r="H50" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G51" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>177</v>
+      <c r="H51" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2400,53 +2680,55 @@
         <v>3</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>177</v>
+      <c r="H52" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>177</v>
+      <c r="H53" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2454,53 +2736,55 @@
         <v>3</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G54" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>177</v>
+      <c r="H54" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A55" s="4">
         <v>3</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>177</v>
+      <c r="H55" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2508,28 +2792,28 @@
         <v>3</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>177</v>
+      <c r="H56" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2537,28 +2821,28 @@
         <v>3</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>177</v>
+      <c r="H57" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2566,28 +2850,28 @@
         <v>3</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>177</v>
+      <c r="H58" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2595,28 +2879,28 @@
         <v>3</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>177</v>
+      <c r="H59" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2624,53 +2908,55 @@
         <v>3</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>177</v>
+      <c r="H60" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A61" s="4">
         <v>3</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="17" t="s">
+        <v>184</v>
+      </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G61" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>177</v>
+      <c r="H61" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2678,28 +2964,28 @@
         <v>3</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H62" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>177</v>
+      <c r="H62" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
@@ -2707,1119 +2993,1585 @@
         <v>3</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G63" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H63" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>177</v>
+      <c r="H63" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A64" s="12">
+      <c r="A64" s="10">
         <v>3</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="13" t="s">
+      <c r="G64" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A65" s="10">
+        <v>3</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F64" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="14" t="b">
+      <c r="E65" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A65" s="12">
+      <c r="H65" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A66" s="10">
         <v>3</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
+      <c r="B66" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="14" t="b">
+      <c r="G66" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A66" s="12">
+      <c r="H66" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A67" s="10">
         <v>3</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
+      <c r="B67" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="14" t="b">
+      <c r="G67" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A67" s="12">
+      <c r="H67" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A68" s="10">
         <v>3</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13" t="s">
+      <c r="B68" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="14" t="b">
+      <c r="G68" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A68" s="12">
+      <c r="H68" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A69" s="10">
         <v>3</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13" t="s">
+      <c r="B69" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G68" s="14" t="b">
+      <c r="G69" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A69" s="12">
+      <c r="H69" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A70" s="10">
         <v>3</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13" t="s">
+      <c r="B70" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="14" t="b">
+      <c r="G70" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A70" s="12">
-        <v>3</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G70" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I70" s="16" t="s">
-        <v>177</v>
+      <c r="H70" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A71" s="4">
         <v>3</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>171</v>
+      <c r="B71" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G71" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>177</v>
+      <c r="H71" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A72" s="4">
         <v>3</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>171</v>
+      <c r="B72" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G72" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>177</v>
+      <c r="H72" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>171</v>
+      <c r="B73" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G73" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>177</v>
+      <c r="H73" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A74" s="4">
         <v>3</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>171</v>
+      <c r="B74" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G74" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>177</v>
+      <c r="H74" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A75" s="4">
         <v>3</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>171</v>
+      <c r="B75" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G75" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H75" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>177</v>
+      <c r="H75" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A76" s="4">
         <v>3</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>171</v>
+      <c r="B76" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G76" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>177</v>
+      <c r="H76" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A77" s="4">
         <v>3</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>171</v>
+      <c r="B77" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G77" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>177</v>
+      <c r="H77" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A78" s="4">
         <v>3</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>171</v>
+      <c r="B78" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G78" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H78" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>177</v>
+      <c r="H78" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A79" s="4">
         <v>3</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>171</v>
+      <c r="B79" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G79" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H79" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>177</v>
+      <c r="H79" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A80" s="4">
         <v>3</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>171</v>
+      <c r="B80" s="19" t="s">
+        <v>187</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G80" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H80" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I80" s="16" t="s">
+      <c r="H80" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A81" s="4">
+        <v>4</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A82" s="4">
+        <v>4</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A81" s="12">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G82" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A83" s="4">
         <v>4</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="13" t="s">
+      <c r="B83" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A84" s="4">
+        <v>4</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G81" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A82" s="12">
+      <c r="F84" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A85" s="4">
         <v>4</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="13" t="s">
+      <c r="B85" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A83" s="12">
-        <v>4</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A84" s="12">
-        <v>4</v>
-      </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I84" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A85" s="12">
-        <v>4</v>
-      </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I85" s="16" t="s">
-        <v>177</v>
+      <c r="F85" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A86" s="4">
         <v>4</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6" t="s">
-        <v>167</v>
-      </c>
+      <c r="B86" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="6" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G86" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H86" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>177</v>
+      <c r="H86" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A87" s="4">
         <v>4</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>129</v>
+      <c r="B87" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G87" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H87" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>177</v>
+      <c r="H87" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A88" s="4">
         <v>4</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>38</v>
+      <c r="B88" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G88" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H88" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I88" s="16" t="s">
-        <v>177</v>
+      <c r="H88" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A89" s="4">
         <v>4</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>38</v>
+      <c r="B89" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G89" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H89" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I89" s="16" t="s">
-        <v>177</v>
+      <c r="H89" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A90" s="4">
         <v>4</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>38</v>
+      <c r="B90" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G90" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H90" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>177</v>
+      <c r="H90" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I90" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A91" s="4">
         <v>4</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>38</v>
+      <c r="B91" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="6"/>
+      <c r="D91" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G91" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H91" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>177</v>
+      <c r="H91" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A92" s="4">
         <v>4</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>38</v>
+      <c r="B92" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G92" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H92" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I92" s="16" t="s">
-        <v>177</v>
+      <c r="H92" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A93" s="4">
         <v>4</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>38</v>
+      <c r="B93" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G93" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H93" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>177</v>
+      <c r="H93" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="A94" s="4">
         <v>4</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>172</v>
+      <c r="B94" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G94" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="H94" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A95" s="4">
+        <v>4</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G95" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A96" s="4">
+        <v>4</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I96" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A97" s="4">
+        <v>4</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A98" s="4">
+        <v>4</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G98" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A99" s="4">
+        <v>4</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G100" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A101" s="4">
+        <v>4</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" s="6"/>
+      <c r="D101" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A102" s="4">
+        <v>4</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G102" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A103" s="4">
+        <v>4</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I103" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I94" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="96" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="97" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="98" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="99" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="100" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="101" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="102" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="103" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="104" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="105" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="106" spans="1:9" ht="16.5" customHeight="1"/>
-    <row r="107" spans="1:9" ht="16.5" customHeight="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A104" s="4">
+        <v>4</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A105" s="4">
+        <v>4</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G105" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A106" s="4">
+        <v>4</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G106" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A107" s="4">
+        <v>4</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
     <row r="108" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="4">
+        <v>4</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A109" s="4">
+        <v>4</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A110" s="4">
+        <v>4</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A111" s="4">
+        <v>4</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="130" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A130" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A131" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="D131" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A132" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A133" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I133" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A109" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H111" s="2" t="s">
+    </row>
+    <row r="134" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A134" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I111" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" s="2" t="s">
+    </row>
+    <row r="135" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A135" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="E136" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="G136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A137" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G115" s="2" t="s">
+    </row>
+    <row r="138" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A138" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G116" s="2" t="s">
+    <row r="139" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A139" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G117" s="2" t="s">
+    </row>
+    <row r="140" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A140" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G118" s="2" t="s">
+    </row>
+    <row r="141" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A141" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="121" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="122" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="123" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="125" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="126" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="127" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="128" spans="1:7" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="143" spans="1:9" ht="16.5" customHeight="1"/>
+    <row r="144" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="145" ht="16.5" customHeight="1"/>
     <row r="146" ht="16.5" customHeight="1"/>
     <row r="147" ht="16.5" customHeight="1"/>

--- a/Assets/Resources/Data/PlaceDialogDB.xlsx
+++ b/Assets/Resources/Data/PlaceDialogDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjcha\Desktop\Bridge\Project\Nostalgia\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96D97D-A24E-42BC-803D-3294ADD25B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC485A-9B6D-43A5-98AB-4E0366A5B65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="216">
   <si>
     <t>day</t>
   </si>
@@ -673,22 +673,7 @@
     <t>누나</t>
   </si>
   <si>
-    <t>트리안 마을 중심에 위치한 세계수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>로레나의 집</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
+    <r>
       <t>트리안</t>
     </r>
     <r>
@@ -697,17 +682,1838 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마을의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광장과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주택가를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이어주는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>골목이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밝은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가로등과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주민들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이야기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나누기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>축제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상인들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물건과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹거리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팔기도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>언제나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>붐빈다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>주택가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>굳게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닫혀버린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로레나의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모습이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>근처에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로레나가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가족과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보인다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>트리안의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절벽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바다가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훤히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등대이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밤마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바다에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밝혀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섬나라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리안의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안전을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지켜준다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예쁜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전망대가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추억을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회상하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>트리안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마을의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤쪽에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>늦은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등반하기에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어둡고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으스스하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중턱에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>놀이공원이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>숨어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주민들과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이들에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>마을</t>
     </r>
     <r>
@@ -715,79 +2521,534 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 길거리</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>트리안 마을의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뒷산</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로레나의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>집</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>밤바다를 비춰주는 등대</t>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>광장을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밝혀주는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중앙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>닿을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유일한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무라고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불리며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잠기곤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나무에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설화가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트리안의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명소로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꼽힌다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>alpha</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -865,8 +3126,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -940,7 +3202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -980,9 +3242,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,7 +3260,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1221,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1286,10 +3545,10 @@
       <c r="G2" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1315,10 +3574,10 @@
       <c r="G3" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1344,10 +3603,10 @@
       <c r="G4" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1373,10 +3632,10 @@
       <c r="G5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1402,10 +3661,10 @@
       <c r="G6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="H6" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1431,10 +3690,10 @@
       <c r="G7" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1460,10 +3719,10 @@
       <c r="G8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="H8" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1489,10 +3748,10 @@
       <c r="G9" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1518,10 +3777,10 @@
       <c r="G10" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="14" t="s">
+      <c r="H10" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1543,10 +3802,10 @@
       <c r="G11" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1567,10 +3826,10 @@
       <c r="G12" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1592,10 +3851,10 @@
       <c r="G13" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1603,10 +3862,12 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D14" s="6" t="s">
         <v>20</v>
       </c>
@@ -1619,10 +3880,10 @@
       <c r="G14" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1644,10 +3905,10 @@
       <c r="G15" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1655,10 +3916,12 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1671,10 +3934,10 @@
       <c r="G16" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1696,10 +3959,10 @@
       <c r="G17" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1707,7 +3970,7 @@
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1725,10 +3988,10 @@
       <c r="G18" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="14" t="s">
+      <c r="H18" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I18" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1736,7 +3999,7 @@
       <c r="A19" s="10">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1754,10 +4017,10 @@
       <c r="G19" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="H19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1765,7 +4028,7 @@
       <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -1783,10 +4046,10 @@
       <c r="G20" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1794,7 +4057,7 @@
       <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1812,10 +4075,10 @@
       <c r="G21" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1823,7 +4086,7 @@
       <c r="A22" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -1841,10 +4104,10 @@
       <c r="G22" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1852,7 +4115,7 @@
       <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -1870,10 +4133,10 @@
       <c r="G23" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1881,7 +4144,7 @@
       <c r="A24" s="10">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -1899,10 +4162,10 @@
       <c r="G24" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1910,7 +4173,7 @@
       <c r="A25" s="10">
         <v>1</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1928,10 +4191,10 @@
       <c r="G25" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1939,7 +4202,7 @@
       <c r="A26" s="10">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -1957,10 +4220,10 @@
       <c r="G26" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="H26" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1968,7 +4231,7 @@
       <c r="A27" s="10">
         <v>1</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -1986,10 +4249,10 @@
       <c r="G27" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="H27" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1997,7 +4260,7 @@
       <c r="A28" s="10">
         <v>1</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>178</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -2015,10 +4278,10 @@
       <c r="G28" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="H28" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2026,7 +4289,7 @@
       <c r="A29" s="10">
         <v>1</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>179</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -2044,10 +4307,10 @@
       <c r="G29" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2055,7 +4318,7 @@
       <c r="A30" s="4">
         <v>2</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -2073,10 +4336,10 @@
       <c r="G30" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2084,7 +4347,7 @@
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -2102,10 +4365,10 @@
       <c r="G31" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2113,7 +4376,7 @@
       <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -2131,10 +4394,10 @@
       <c r="G32" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2142,7 +4405,7 @@
       <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -2160,10 +4423,10 @@
       <c r="G33" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2171,7 +4434,7 @@
       <c r="A34" s="4">
         <v>2</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -2189,10 +4452,10 @@
       <c r="G34" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2200,7 +4463,7 @@
       <c r="A35" s="4">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2218,10 +4481,10 @@
       <c r="G35" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2232,7 +4495,9 @@
       <c r="B36" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D36" s="6" t="s">
         <v>44</v>
       </c>
@@ -2245,10 +4510,10 @@
       <c r="G36" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2256,7 +4521,7 @@
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2274,10 +4539,10 @@
       <c r="G37" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2285,7 +4550,7 @@
       <c r="A38" s="4">
         <v>2</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2303,10 +4568,10 @@
       <c r="G38" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2314,7 +4579,7 @@
       <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2332,10 +4597,10 @@
       <c r="G39" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I39" s="14" t="s">
+      <c r="I39" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2346,7 +4611,9 @@
       <c r="B40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D40" s="6" t="s">
         <v>48</v>
       </c>
@@ -2359,10 +4626,10 @@
       <c r="G40" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I40" s="14" t="s">
+      <c r="I40" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2370,7 +4637,7 @@
       <c r="A41" s="10">
         <v>2</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -2388,10 +4655,10 @@
       <c r="G41" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="14" t="s">
+      <c r="H41" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2399,7 +4666,7 @@
       <c r="A42" s="10">
         <v>2</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -2417,10 +4684,10 @@
       <c r="G42" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I42" s="14" t="s">
+      <c r="H42" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2428,7 +4695,7 @@
       <c r="A43" s="10">
         <v>2</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -2446,10 +4713,10 @@
       <c r="G43" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I43" s="14" t="s">
+      <c r="H43" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2457,7 +4724,7 @@
       <c r="A44" s="10">
         <v>2</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -2475,10 +4742,10 @@
       <c r="G44" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" s="14" t="s">
+      <c r="H44" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2486,7 +4753,7 @@
       <c r="A45" s="10">
         <v>2</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -2504,10 +4771,10 @@
       <c r="G45" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I45" s="14" t="s">
+      <c r="H45" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2515,7 +4782,7 @@
       <c r="A46" s="10">
         <v>2</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>183</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -2533,10 +4800,10 @@
       <c r="G46" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" s="14" t="s">
+      <c r="H46" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2544,7 +4811,7 @@
       <c r="A47" s="10">
         <v>2</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>182</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -2562,10 +4829,10 @@
       <c r="G47" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" s="14" t="s">
+      <c r="H47" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2587,10 +4854,10 @@
       <c r="G48" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I48" s="14" t="s">
+      <c r="H48" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2612,10 +4879,10 @@
       <c r="G49" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="H49" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2641,10 +4908,10 @@
       <c r="G50" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H50" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="14" t="s">
+      <c r="H50" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2652,10 +4919,12 @@
       <c r="A51" s="4">
         <v>3</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D51" s="6" t="s">
         <v>103</v>
       </c>
@@ -2668,10 +4937,10 @@
       <c r="G51" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I51" s="14" t="s">
+      <c r="H51" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2697,10 +4966,10 @@
       <c r="G52" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" s="14" t="s">
+      <c r="H52" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2708,10 +4977,12 @@
       <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D53" s="6" t="s">
         <v>104</v>
       </c>
@@ -2724,10 +4995,10 @@
       <c r="G53" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H53" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I53" s="14" t="s">
+      <c r="H53" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I53" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2753,10 +5024,10 @@
       <c r="G54" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I54" s="14" t="s">
+      <c r="H54" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I54" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2764,10 +5035,12 @@
       <c r="A55" s="4">
         <v>3</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="6"/>
+      <c r="C55" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>106</v>
       </c>
@@ -2780,10 +5053,10 @@
       <c r="G55" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I55" s="14" t="s">
+      <c r="H55" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I55" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2809,10 +5082,10 @@
       <c r="G56" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I56" s="14" t="s">
+      <c r="H56" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2838,10 +5111,10 @@
       <c r="G57" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I57" s="14" t="s">
+      <c r="H57" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I57" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2867,10 +5140,10 @@
       <c r="G58" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I58" s="14" t="s">
+      <c r="H58" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I58" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2896,10 +5169,10 @@
       <c r="G59" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I59" s="14" t="s">
+      <c r="H59" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I59" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2925,10 +5198,10 @@
       <c r="G60" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I60" s="14" t="s">
+      <c r="H60" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2936,10 +5209,12 @@
       <c r="A61" s="4">
         <v>3</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D61" s="6" t="s">
         <v>111</v>
       </c>
@@ -2952,10 +5227,10 @@
       <c r="G61" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H61" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I61" s="14" t="s">
+      <c r="H61" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2981,10 +5256,10 @@
       <c r="G62" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H62" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I62" s="14" t="s">
+      <c r="H62" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3010,10 +5285,10 @@
       <c r="G63" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H63" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I63" s="14" t="s">
+      <c r="H63" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3021,7 +5296,7 @@
       <c r="A64" s="10">
         <v>3</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C64" s="11" t="s">
@@ -3039,10 +5314,10 @@
       <c r="G64" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I64" s="14" t="s">
+      <c r="H64" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I64" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3050,7 +5325,7 @@
       <c r="A65" s="10">
         <v>3</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C65" s="11" t="s">
@@ -3068,10 +5343,10 @@
       <c r="G65" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I65" s="14" t="s">
+      <c r="H65" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3079,7 +5354,7 @@
       <c r="A66" s="10">
         <v>3</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -3097,10 +5372,10 @@
       <c r="G66" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I66" s="14" t="s">
+      <c r="H66" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I66" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3108,7 +5383,7 @@
       <c r="A67" s="10">
         <v>3</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -3126,10 +5401,10 @@
       <c r="G67" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I67" s="14" t="s">
+      <c r="H67" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3137,7 +5412,7 @@
       <c r="A68" s="10">
         <v>3</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -3155,10 +5430,10 @@
       <c r="G68" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I68" s="14" t="s">
+      <c r="H68" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I68" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3166,7 +5441,7 @@
       <c r="A69" s="10">
         <v>3</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -3184,10 +5459,10 @@
       <c r="G69" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I69" s="14" t="s">
+      <c r="H69" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3195,7 +5470,7 @@
       <c r="A70" s="10">
         <v>3</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -3213,10 +5488,10 @@
       <c r="G70" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I70" s="14" t="s">
+      <c r="H70" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3224,7 +5499,7 @@
       <c r="A71" s="4">
         <v>3</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="18" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -3242,10 +5517,10 @@
       <c r="G71" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H71" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I71" s="14" t="s">
+      <c r="H71" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3253,7 +5528,7 @@
       <c r="A72" s="4">
         <v>3</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -3271,10 +5546,10 @@
       <c r="G72" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H72" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I72" s="14" t="s">
+      <c r="H72" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I72" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3282,7 +5557,7 @@
       <c r="A73" s="4">
         <v>3</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="18" t="s">
         <v>186</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -3300,10 +5575,10 @@
       <c r="G73" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H73" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I73" s="14" t="s">
+      <c r="H73" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3311,7 +5586,7 @@
       <c r="A74" s="4">
         <v>3</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -3329,10 +5604,10 @@
       <c r="G74" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I74" s="14" t="s">
+      <c r="H74" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3340,7 +5615,7 @@
       <c r="A75" s="4">
         <v>3</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="18" t="s">
         <v>186</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -3358,10 +5633,10 @@
       <c r="G75" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H75" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I75" s="14" t="s">
+      <c r="H75" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3369,7 +5644,7 @@
       <c r="A76" s="4">
         <v>3</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>186</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -3387,10 +5662,10 @@
       <c r="G76" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I76" s="14" t="s">
+      <c r="H76" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3398,7 +5673,7 @@
       <c r="A77" s="4">
         <v>3</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -3416,10 +5691,10 @@
       <c r="G77" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I77" s="14" t="s">
+      <c r="H77" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3427,7 +5702,7 @@
       <c r="A78" s="4">
         <v>3</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="18" t="s">
         <v>186</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -3445,10 +5720,10 @@
       <c r="G78" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H78" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I78" s="14" t="s">
+      <c r="H78" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3456,7 +5731,7 @@
       <c r="A79" s="4">
         <v>3</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="18" t="s">
         <v>186</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -3474,10 +5749,10 @@
       <c r="G79" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H79" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I79" s="14" t="s">
+      <c r="H79" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3485,7 +5760,7 @@
       <c r="A80" s="4">
         <v>3</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -3503,10 +5778,10 @@
       <c r="G80" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H80" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I80" s="14" t="s">
+      <c r="H80" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3522,10 +5797,10 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I81" s="14" t="s">
+      <c r="H81" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3536,7 +5811,9 @@
       <c r="B82" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D82" s="6" t="s">
         <v>103</v>
       </c>
@@ -3549,10 +5826,10 @@
       <c r="G82" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H82" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" s="14" t="s">
+      <c r="H82" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3563,17 +5840,19 @@
       <c r="B83" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D83" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I83" s="14" t="s">
+      <c r="H83" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3584,7 +5863,9 @@
       <c r="B84" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D84" s="6" t="s">
         <v>189</v>
       </c>
@@ -3597,10 +5878,10 @@
       <c r="G84" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H84" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I84" s="14" t="s">
+      <c r="H84" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3611,7 +5892,9 @@
       <c r="B85" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D85" s="6" t="s">
         <v>190</v>
       </c>
@@ -3624,10 +5907,10 @@
       <c r="G85" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H85" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I85" s="14" t="s">
+      <c r="H85" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I85" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3638,7 +5921,9 @@
       <c r="B86" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="6"/>
+      <c r="C86" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D86" s="6" t="s">
         <v>191</v>
       </c>
@@ -3651,10 +5936,10 @@
       <c r="G86" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H86" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I86" s="14" t="s">
+      <c r="H86" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I86" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3665,7 +5950,9 @@
       <c r="B87" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D87" s="5" t="s">
         <v>192</v>
       </c>
@@ -3678,10 +5965,10 @@
       <c r="G87" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H87" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I87" s="14" t="s">
+      <c r="H87" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3692,7 +5979,9 @@
       <c r="B88" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D88" s="5" t="s">
         <v>193</v>
       </c>
@@ -3705,10 +5994,10 @@
       <c r="G88" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H88" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I88" s="14" t="s">
+      <c r="H88" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I88" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3719,7 +6008,9 @@
       <c r="B89" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D89" s="5" t="s">
         <v>194</v>
       </c>
@@ -3732,10 +6023,10 @@
       <c r="G89" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H89" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I89" s="14" t="s">
+      <c r="H89" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I89" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3746,7 +6037,9 @@
       <c r="B90" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D90" s="5" t="s">
         <v>195</v>
       </c>
@@ -3759,10 +6052,10 @@
       <c r="G90" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H90" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I90" s="14" t="s">
+      <c r="H90" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3773,7 +6066,9 @@
       <c r="B91" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="6"/>
+      <c r="C91" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D91" s="5" t="s">
         <v>196</v>
       </c>
@@ -3786,10 +6081,10 @@
       <c r="G91" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H91" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I91" s="14" t="s">
+      <c r="H91" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3800,7 +6095,9 @@
       <c r="B92" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D92" s="5" t="s">
         <v>197</v>
       </c>
@@ -3813,10 +6110,10 @@
       <c r="G92" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H92" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I92" s="14" t="s">
+      <c r="H92" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I92" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3827,7 +6124,9 @@
       <c r="B93" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D93" s="5" t="s">
         <v>198</v>
       </c>
@@ -3840,10 +6139,10 @@
       <c r="G93" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H93" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I93" s="14" t="s">
+      <c r="H93" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3854,7 +6153,9 @@
       <c r="B94" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D94" s="5" t="s">
         <v>199</v>
       </c>
@@ -3867,10 +6168,10 @@
       <c r="G94" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I94" s="14" t="s">
+      <c r="H94" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3881,7 +6182,9 @@
       <c r="B95" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D95" s="5" t="s">
         <v>200</v>
       </c>
@@ -3894,10 +6197,10 @@
       <c r="G95" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H95" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I95" s="14" t="s">
+      <c r="H95" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3908,7 +6211,9 @@
       <c r="B96" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D96" s="5" t="s">
         <v>201</v>
       </c>
@@ -3921,10 +6226,10 @@
       <c r="G96" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I96" s="14" t="s">
+      <c r="H96" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I96" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3935,7 +6240,9 @@
       <c r="B97" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="D97" s="5" t="s">
         <v>202</v>
       </c>
@@ -3948,10 +6255,10 @@
       <c r="G97" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H97" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I97" s="14" t="s">
+      <c r="H97" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I97" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3962,7 +6269,9 @@
       <c r="B98" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D98" s="5" t="s">
         <v>203</v>
       </c>
@@ -3975,10 +6284,10 @@
       <c r="G98" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H98" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I98" s="14" t="s">
+      <c r="H98" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I98" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4000,10 +6309,10 @@
       <c r="G99" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H99" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I99" s="14" t="s">
+      <c r="H99" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I99" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4014,7 +6323,9 @@
       <c r="B100" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D100" s="5" t="s">
         <v>205</v>
       </c>
@@ -4027,10 +6338,10 @@
       <c r="G100" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H100" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I100" s="14" t="s">
+      <c r="H100" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4041,7 +6352,9 @@
       <c r="B101" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="6" t="s">
+        <v>215</v>
+      </c>
       <c r="D101" s="5" t="s">
         <v>206</v>
       </c>
@@ -4054,10 +6367,10 @@
       <c r="G101" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H101" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I101" s="14" t="s">
+      <c r="H101" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I101" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4079,10 +6392,10 @@
       <c r="G102" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H102" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I102" s="14" t="s">
+      <c r="H102" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I102" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4108,10 +6421,10 @@
       <c r="G103" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H103" s="20" t="s">
+      <c r="H103" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I103" s="14" t="s">
+      <c r="I103" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4137,10 +6450,10 @@
       <c r="G104" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H104" s="20" t="s">
+      <c r="H104" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I104" s="14" t="s">
+      <c r="I104" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4166,10 +6479,10 @@
       <c r="G105" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H105" s="20" t="s">
+      <c r="H105" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I105" s="14" t="s">
+      <c r="I105" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4195,10 +6508,10 @@
       <c r="G106" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I106" s="14" t="s">
+      <c r="I106" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4224,10 +6537,10 @@
       <c r="G107" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H107" s="20" t="s">
+      <c r="H107" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I107" s="14" t="s">
+      <c r="I107" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4253,10 +6566,10 @@
       <c r="G108" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H108" s="20" t="s">
+      <c r="H108" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I108" s="14" t="s">
+      <c r="I108" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4282,10 +6595,10 @@
       <c r="G109" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H109" s="20" t="s">
+      <c r="H109" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I109" s="14" t="s">
+      <c r="I109" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4311,10 +6624,10 @@
       <c r="G110" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H110" s="20" t="s">
+      <c r="H110" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I110" s="14" t="s">
+      <c r="I110" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4340,10 +6653,10 @@
       <c r="G111" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H111" s="20" t="s">
+      <c r="H111" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I111" s="14" t="s">
+      <c r="I111" s="13" t="s">
         <v>176</v>
       </c>
     </row>
